--- a/kureshi-stack-resource/素材管理表.xlsx
+++ b/kureshi-stack-resource/素材管理表.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{8911EA95-6A05-4140-8380-91D27F6AD314}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{CE74743A-C3FD-4215-B33D-4589D92D59F2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Image" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="Model" sheetId="3" r:id="rId3"/>
     <sheet name="Font" sheetId="4" r:id="rId4"/>
     <sheet name="Plugin" sheetId="5" r:id="rId5"/>
-    <sheet name="Build" sheetId="6" r:id="rId6"/>
+    <sheet name="BuildData" sheetId="6" r:id="rId6"/>
     <sheet name="Document" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -1518,7 +1518,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
@@ -2608,7 +2608,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
